--- a/模型訓練過程/chow模型.xlsx
+++ b/模型訓練過程/chow模型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47AF18A-C2B4-4B51-A75E-9046ACB4C1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C5D36-4D43-4ADB-8E51-DB6B423CF61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10812" yWindow="1236" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="2484" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -477,6 +477,9 @@
       <c r="B4" s="4">
         <v>0.5</v>
       </c>
+      <c r="C4" s="5">
+        <v>0.50919999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -485,6 +488,9 @@
       <c r="B5" s="5">
         <v>0.53125</v>
       </c>
+      <c r="C5" s="5">
+        <v>0.49109999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -493,6 +499,9 @@
       <c r="B6" s="5">
         <v>0.65625</v>
       </c>
+      <c r="C6" s="5">
+        <v>0.49299999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -501,6 +510,9 @@
       <c r="B7" s="5">
         <v>0.6875</v>
       </c>
+      <c r="C7" s="5">
+        <v>0.51700000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -509,6 +521,9 @@
       <c r="B8" s="5">
         <v>0.71875</v>
       </c>
+      <c r="C8" s="5">
+        <v>0.54600000000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -517,6 +532,9 @@
       <c r="B9" s="4">
         <v>0.75</v>
       </c>
+      <c r="C9" s="5">
+        <v>0.53049999999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -524,6 +542,9 @@
       </c>
       <c r="B10" s="5">
         <v>0.78125</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.54700000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/模型訓練過程/chow模型.xlsx
+++ b/模型訓練過程/chow模型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C5D36-4D43-4ADB-8E51-DB6B423CF61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6918717D-C197-4279-9881-A6E3FC00D25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2484" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="564" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>模型類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>驗證總準確率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特徵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定時儲存訓練時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -125,6 +137,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -405,21 +418,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -459,7 +471,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -470,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4.9305555555555554E-2</v>
       </c>
@@ -481,7 +493,7 @@
         <v>0.50919999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5.4166666666666669E-2</v>
       </c>
@@ -492,7 +504,7 @@
         <v>0.49109999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5.486111111111111E-2</v>
       </c>
@@ -503,7 +515,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.13819444444444445</v>
       </c>
@@ -514,7 +526,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.15902777777777777</v>
       </c>
@@ -525,7 +537,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.16458333333333333</v>
       </c>
@@ -536,7 +548,7 @@
         <v>0.53049999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.34722222222222221</v>
       </c>
@@ -545,6 +557,204 @@
       </c>
       <c r="C10" s="5">
         <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45717.090277777781</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.4829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.52549999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.50780000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.54459999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2.6458333333333335</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.52229999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.49680000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.61211300000000002</v>
       </c>
     </row>
   </sheetData>
